--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gpc3</t>
+  </si>
+  <si>
+    <t>Cd81</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gpc3</t>
-  </si>
-  <si>
-    <t>Cd81</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H2">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I2">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J2">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.364568</v>
+        <v>133.56988</v>
       </c>
       <c r="N2">
-        <v>442.093704</v>
+        <v>400.70964</v>
       </c>
       <c r="O2">
-        <v>0.2954235206148722</v>
+        <v>0.3284697060094263</v>
       </c>
       <c r="P2">
-        <v>0.329839305239453</v>
+        <v>0.355056363536022</v>
       </c>
       <c r="Q2">
-        <v>198.9305741206506</v>
+        <v>51.34141238122666</v>
       </c>
       <c r="R2">
-        <v>1790.375167085856</v>
+        <v>462.07271143104</v>
       </c>
       <c r="S2">
-        <v>0.01378945016499734</v>
+        <v>0.007071771336601843</v>
       </c>
       <c r="T2">
-        <v>0.01820040641738662</v>
+        <v>0.008182156903876091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H3">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I3">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J3">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>464.171928</v>
       </c>
       <c r="O3">
-        <v>0.3101770142837252</v>
+        <v>0.3804910127143151</v>
       </c>
       <c r="P3">
-        <v>0.3463115282075526</v>
+        <v>0.411288325409851</v>
       </c>
       <c r="Q3">
-        <v>208.8651959805547</v>
+        <v>59.47259559624534</v>
       </c>
       <c r="R3">
-        <v>1879.786763824992</v>
+        <v>535.253360366208</v>
       </c>
       <c r="S3">
-        <v>0.01447809731564676</v>
+        <v>0.008191761335428854</v>
       </c>
       <c r="T3">
-        <v>0.01910933736604835</v>
+        <v>0.009478003936393137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H4">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I4">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J4">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00436733333333</v>
+        <v>12.131651</v>
       </c>
       <c r="N4">
-        <v>51.013102</v>
+        <v>36.394953</v>
       </c>
       <c r="O4">
-        <v>0.03408885956522371</v>
+        <v>0.02983367086486087</v>
       </c>
       <c r="P4">
-        <v>0.03806008990752185</v>
+        <v>0.03224843720566452</v>
       </c>
       <c r="Q4">
-        <v>22.95455822310311</v>
+        <v>4.663147835845333</v>
       </c>
       <c r="R4">
-        <v>206.591024007928</v>
+        <v>41.968330522608</v>
       </c>
       <c r="S4">
-        <v>0.001591161831589725</v>
+        <v>0.0006423024547709191</v>
       </c>
       <c r="T4">
-        <v>0.002100141170550572</v>
+        <v>0.0007431546092956384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H5">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I5">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J5">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>156.1437225</v>
+        <v>91.34839249999999</v>
       </c>
       <c r="N5">
-        <v>312.287445</v>
+        <v>182.696785</v>
       </c>
       <c r="O5">
-        <v>0.3130231971559245</v>
+        <v>0.2246403128378096</v>
       </c>
       <c r="P5">
-        <v>0.2329928541434372</v>
+        <v>0.1618819455200091</v>
       </c>
       <c r="Q5">
-        <v>210.78174206883</v>
+        <v>35.11237331129333</v>
       </c>
       <c r="R5">
-        <v>1264.69045241298</v>
+        <v>210.67423986776</v>
       </c>
       <c r="S5">
-        <v>0.0146109482707602</v>
+        <v>0.004836381852900929</v>
       </c>
       <c r="T5">
-        <v>0.01285645637253244</v>
+        <v>0.003730516093158417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H6">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I6">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J6">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.58813033333334</v>
+        <v>14.86901933333333</v>
       </c>
       <c r="N6">
-        <v>70.764391</v>
+        <v>44.60705799999999</v>
       </c>
       <c r="O6">
-        <v>0.04728740838025457</v>
+        <v>0.03656529757358827</v>
       </c>
       <c r="P6">
-        <v>0.05279622250203546</v>
+        <v>0.03952492832845353</v>
       </c>
       <c r="Q6">
-        <v>31.84212035041378</v>
+        <v>5.715333825987555</v>
       </c>
       <c r="R6">
-        <v>286.579083153724</v>
+        <v>51.43800443388799</v>
       </c>
       <c r="S6">
-        <v>0.002207228997658121</v>
+        <v>0.0007872306595232796</v>
       </c>
       <c r="T6">
-        <v>0.002913275317937702</v>
+        <v>0.000910838949560338</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>41.700813</v>
       </c>
       <c r="I7">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J7">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.364568</v>
+        <v>133.56988</v>
       </c>
       <c r="N7">
-        <v>442.093704</v>
+        <v>400.70964</v>
       </c>
       <c r="O7">
-        <v>0.2954235206148722</v>
+        <v>0.3284697060094263</v>
       </c>
       <c r="P7">
-        <v>0.329839305239453</v>
+        <v>0.355056363536022</v>
       </c>
       <c r="Q7">
-        <v>2048.407430997928</v>
+        <v>1856.65752943748</v>
       </c>
       <c r="R7">
-        <v>18435.66687898135</v>
+        <v>16709.91776493732</v>
       </c>
       <c r="S7">
-        <v>0.1419913068276011</v>
+        <v>0.2557361959789596</v>
       </c>
       <c r="T7">
-        <v>0.1874113515097273</v>
+        <v>0.295891026717747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>41.700813</v>
       </c>
       <c r="I8">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J8">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>464.171928</v>
       </c>
       <c r="O8">
-        <v>0.3101770142837252</v>
+        <v>0.3804910127143151</v>
       </c>
       <c r="P8">
-        <v>0.3463115282075526</v>
+        <v>0.411288325409851</v>
       </c>
       <c r="Q8">
         <v>2150.705196597496</v>
       </c>
       <c r="R8">
-        <v>19356.34676937746</v>
+        <v>19356.34676937747</v>
       </c>
       <c r="S8">
-        <v>0.1490823733816556</v>
+        <v>0.2962383514081157</v>
       </c>
       <c r="T8">
-        <v>0.1967707017138517</v>
+        <v>0.3427526933204705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>41.700813</v>
       </c>
       <c r="I9">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J9">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.00436733333333</v>
+        <v>12.131651</v>
       </c>
       <c r="N9">
-        <v>51.013102</v>
+        <v>36.394953</v>
       </c>
       <c r="O9">
-        <v>0.03408885956522371</v>
+        <v>0.02983367086486087</v>
       </c>
       <c r="P9">
-        <v>0.03806008990752185</v>
+        <v>0.03224843720566452</v>
       </c>
       <c r="Q9">
-        <v>236.3653141168806</v>
+        <v>168.633236577421</v>
       </c>
       <c r="R9">
-        <v>2127.287827051926</v>
+        <v>1517.699129196789</v>
       </c>
       <c r="S9">
-        <v>0.01638434782665376</v>
+        <v>0.02322755907008632</v>
       </c>
       <c r="T9">
-        <v>0.02162535748422143</v>
+        <v>0.02687467167127336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>41.700813</v>
       </c>
       <c r="I10">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J10">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>156.1437225</v>
+        <v>91.34839249999999</v>
       </c>
       <c r="N10">
-        <v>312.287445</v>
+        <v>182.696785</v>
       </c>
       <c r="O10">
-        <v>0.3130231971559245</v>
+        <v>0.2246403128378096</v>
       </c>
       <c r="P10">
-        <v>0.2329928541434372</v>
+        <v>0.1618819455200091</v>
       </c>
       <c r="Q10">
-        <v>2170.440057698797</v>
+        <v>1269.767411164367</v>
       </c>
       <c r="R10">
-        <v>13022.64034619278</v>
+        <v>7618.604466986203</v>
       </c>
       <c r="S10">
-        <v>0.1504503525616911</v>
+        <v>0.1748978917009053</v>
       </c>
       <c r="T10">
-        <v>0.1323841791851658</v>
+        <v>0.1349065105887681</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>41.700813</v>
       </c>
       <c r="I11">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J11">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.58813033333334</v>
+        <v>14.86901933333333</v>
       </c>
       <c r="N11">
-        <v>70.764391</v>
+        <v>44.60705799999999</v>
       </c>
       <c r="O11">
-        <v>0.04728740838025457</v>
+        <v>0.03656529757358827</v>
       </c>
       <c r="P11">
-        <v>0.05279622250203546</v>
+        <v>0.03952492832845353</v>
       </c>
       <c r="Q11">
-        <v>327.8814040166537</v>
+        <v>206.6833982375726</v>
       </c>
       <c r="R11">
-        <v>2950.932636149883</v>
+        <v>1860.150584138154</v>
       </c>
       <c r="S11">
-        <v>0.02272805123447163</v>
+        <v>0.02846859218743232</v>
       </c>
       <c r="T11">
-        <v>0.02999827872706548</v>
+        <v>0.03293863404553503</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H12">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I12">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J12">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>147.364568</v>
+        <v>133.56988</v>
       </c>
       <c r="N12">
-        <v>442.093704</v>
+        <v>400.70964</v>
       </c>
       <c r="O12">
-        <v>0.2954235206148722</v>
+        <v>0.3284697060094263</v>
       </c>
       <c r="P12">
-        <v>0.329839305239453</v>
+        <v>0.355056363536022</v>
       </c>
       <c r="Q12">
-        <v>11.40311939336267</v>
+        <v>470.39444887974</v>
       </c>
       <c r="R12">
-        <v>102.628074540264</v>
+        <v>2822.36669327844</v>
       </c>
       <c r="S12">
-        <v>0.0007904403196711331</v>
+        <v>0.06479217898767295</v>
       </c>
       <c r="T12">
-        <v>0.001043285620134543</v>
+        <v>0.04997708489029556</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H13">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I13">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J13">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>464.171928</v>
       </c>
       <c r="O13">
-        <v>0.3101770142837252</v>
+        <v>0.3804910127143151</v>
       </c>
       <c r="P13">
-        <v>0.3463115282075526</v>
+        <v>0.411288325409851</v>
       </c>
       <c r="Q13">
-        <v>11.97259283753866</v>
+        <v>544.8930508809481</v>
       </c>
       <c r="R13">
-        <v>107.753335537848</v>
+        <v>3269.358305285688</v>
       </c>
       <c r="S13">
-        <v>0.0008299150244190905</v>
+        <v>0.07505362396579542</v>
       </c>
       <c r="T13">
-        <v>0.001095387456032458</v>
+        <v>0.05789219308362075</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H14">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I14">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J14">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.00436733333333</v>
+        <v>12.131651</v>
       </c>
       <c r="N14">
-        <v>51.013102</v>
+        <v>36.394953</v>
       </c>
       <c r="O14">
-        <v>0.03408885956522371</v>
+        <v>0.02983367086486087</v>
       </c>
       <c r="P14">
-        <v>0.03806008990752185</v>
+        <v>0.03224843720566452</v>
       </c>
       <c r="Q14">
-        <v>1.315803612375777</v>
+        <v>42.7241627090355</v>
       </c>
       <c r="R14">
-        <v>11.842232511382</v>
+        <v>256.344976254213</v>
       </c>
       <c r="S14">
-        <v>9.120874666945295E-05</v>
+        <v>0.005884830494779075</v>
       </c>
       <c r="T14">
-        <v>0.0001203845141279295</v>
+        <v>0.004539231089272813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H15">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I15">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J15">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>156.1437225</v>
+        <v>91.34839249999999</v>
       </c>
       <c r="N15">
-        <v>312.287445</v>
+        <v>182.696785</v>
       </c>
       <c r="O15">
-        <v>0.3130231971559245</v>
+        <v>0.2246403128378096</v>
       </c>
       <c r="P15">
-        <v>0.2329928541434372</v>
+        <v>0.1618819455200091</v>
       </c>
       <c r="Q15">
-        <v>12.0824532949575</v>
+        <v>321.7025930253712</v>
       </c>
       <c r="R15">
-        <v>72.49471976974499</v>
+        <v>1286.810372101485</v>
       </c>
       <c r="S15">
-        <v>0.0008375303209082166</v>
+        <v>0.04431134771623813</v>
       </c>
       <c r="T15">
-        <v>0.0007369591508976951</v>
+        <v>0.02278620682329748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H16">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I16">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J16">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.58813033333334</v>
+        <v>14.86901933333333</v>
       </c>
       <c r="N16">
-        <v>70.764391</v>
+        <v>44.60705799999999</v>
       </c>
       <c r="O16">
-        <v>0.04728740838025457</v>
+        <v>0.03656529757358827</v>
       </c>
       <c r="P16">
-        <v>0.05279622250203546</v>
+        <v>0.03952492832845353</v>
       </c>
       <c r="Q16">
-        <v>1.825257387903445</v>
+        <v>52.364381510903</v>
       </c>
       <c r="R16">
-        <v>16.427316491131</v>
+        <v>314.186289065418</v>
       </c>
       <c r="S16">
-        <v>0.0001265230138707722</v>
+        <v>0.007212675208037193</v>
       </c>
       <c r="T16">
-        <v>0.0001669950756590695</v>
+        <v>0.005563456682430543</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H17">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I17">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J17">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>147.364568</v>
+        <v>133.56988</v>
       </c>
       <c r="N17">
-        <v>442.093704</v>
+        <v>400.70964</v>
       </c>
       <c r="O17">
-        <v>0.2954235206148722</v>
+        <v>0.3284697060094263</v>
       </c>
       <c r="P17">
-        <v>0.329839305239453</v>
+        <v>0.355056363536022</v>
       </c>
       <c r="Q17">
-        <v>1970.156034884804</v>
+        <v>6.313046808319999</v>
       </c>
       <c r="R17">
-        <v>11820.93620930883</v>
+        <v>56.81742127488</v>
       </c>
       <c r="S17">
-        <v>0.1365670841719677</v>
+        <v>0.0008695597061920264</v>
       </c>
       <c r="T17">
-        <v>0.120168022433873</v>
+        <v>0.001006095024103314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H18">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I18">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J18">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>464.171928</v>
       </c>
       <c r="O18">
-        <v>0.3101770142837252</v>
+        <v>0.3804910127143151</v>
       </c>
       <c r="P18">
-        <v>0.3463115282075526</v>
+        <v>0.411288325409851</v>
       </c>
       <c r="Q18">
-        <v>2068.545914359628</v>
+        <v>7.312874001664001</v>
       </c>
       <c r="R18">
-        <v>12411.27548615777</v>
+        <v>65.81586601497601</v>
       </c>
       <c r="S18">
-        <v>0.143387264256178</v>
+        <v>0.00100727600497524</v>
       </c>
       <c r="T18">
-        <v>0.1261692309851987</v>
+        <v>0.001165435069366541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H19">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I19">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J19">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.00436733333333</v>
+        <v>12.131651</v>
       </c>
       <c r="N19">
-        <v>51.013102</v>
+        <v>36.394953</v>
       </c>
       <c r="O19">
-        <v>0.03408885956522371</v>
+        <v>0.02983367086486087</v>
       </c>
       <c r="P19">
-        <v>0.03806008990752185</v>
+        <v>0.03224843720566452</v>
       </c>
       <c r="Q19">
-        <v>227.3359015388603</v>
+        <v>0.573390352864</v>
       </c>
       <c r="R19">
-        <v>1364.015409233162</v>
+        <v>5.160513175776</v>
       </c>
       <c r="S19">
-        <v>0.0157584478848565</v>
+        <v>7.897884522456863E-05</v>
       </c>
       <c r="T19">
-        <v>0.01386616350808165</v>
+        <v>9.137983582270188E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H20">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I20">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J20">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>156.1437225</v>
+        <v>91.34839249999999</v>
       </c>
       <c r="N20">
-        <v>312.287445</v>
+        <v>182.696785</v>
       </c>
       <c r="O20">
-        <v>0.3130231971559245</v>
+        <v>0.2246403128378096</v>
       </c>
       <c r="P20">
-        <v>0.2329928541434372</v>
+        <v>0.1618819455200091</v>
       </c>
       <c r="Q20">
-        <v>2087.526882260824</v>
+        <v>4.31749042312</v>
       </c>
       <c r="R20">
-        <v>8350.107529043295</v>
+        <v>25.90494253872</v>
       </c>
       <c r="S20">
-        <v>0.1447029851407828</v>
+        <v>0.000594691567765232</v>
       </c>
       <c r="T20">
-        <v>0.08488463951655115</v>
+        <v>0.0004587120147850022</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H21">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I21">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J21">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.58813033333334</v>
+        <v>14.86901933333333</v>
       </c>
       <c r="N21">
-        <v>70.764391</v>
+        <v>44.60705799999999</v>
       </c>
       <c r="O21">
-        <v>0.04728740838025457</v>
+        <v>0.03656529757358827</v>
       </c>
       <c r="P21">
-        <v>0.05279622250203546</v>
+        <v>0.03952492832845353</v>
       </c>
       <c r="Q21">
-        <v>315.3559770749369</v>
+        <v>0.7027693297706666</v>
       </c>
       <c r="R21">
-        <v>1892.135862449621</v>
+        <v>6.324923967935999</v>
       </c>
       <c r="S21">
-        <v>0.02185981490945421</v>
+        <v>9.679951859548647E-05</v>
       </c>
       <c r="T21">
-        <v>0.01923487452607413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.223714</v>
-      </c>
-      <c r="H22">
-        <v>0.671142</v>
-      </c>
-      <c r="I22">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J22">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>147.364568</v>
-      </c>
-      <c r="N22">
-        <v>442.093704</v>
-      </c>
-      <c r="O22">
-        <v>0.2954235206148722</v>
-      </c>
-      <c r="P22">
-        <v>0.329839305239453</v>
-      </c>
-      <c r="Q22">
-        <v>32.967516965552</v>
-      </c>
-      <c r="R22">
-        <v>296.707652689968</v>
-      </c>
-      <c r="S22">
-        <v>0.002285239130634931</v>
-      </c>
-      <c r="T22">
-        <v>0.003016239258331521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.223714</v>
-      </c>
-      <c r="H23">
-        <v>0.671142</v>
-      </c>
-      <c r="I23">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J23">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>154.723976</v>
-      </c>
-      <c r="N23">
-        <v>464.171928</v>
-      </c>
-      <c r="O23">
-        <v>0.3101770142837252</v>
-      </c>
-      <c r="P23">
-        <v>0.3463115282075526</v>
-      </c>
-      <c r="Q23">
-        <v>34.613919566864</v>
-      </c>
-      <c r="R23">
-        <v>311.525276101776</v>
-      </c>
-      <c r="S23">
-        <v>0.002399364305825672</v>
-      </c>
-      <c r="T23">
-        <v>0.003166870686421338</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.223714</v>
-      </c>
-      <c r="H24">
-        <v>0.671142</v>
-      </c>
-      <c r="I24">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J24">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>17.00436733333333</v>
-      </c>
-      <c r="N24">
-        <v>51.013102</v>
-      </c>
-      <c r="O24">
-        <v>0.03408885956522371</v>
-      </c>
-      <c r="P24">
-        <v>0.03806008990752185</v>
-      </c>
-      <c r="Q24">
-        <v>3.804115033609333</v>
-      </c>
-      <c r="R24">
-        <v>34.237035302484</v>
-      </c>
-      <c r="S24">
-        <v>0.0002636932754542713</v>
-      </c>
-      <c r="T24">
-        <v>0.0003480432305402617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.223714</v>
-      </c>
-      <c r="H25">
-        <v>0.671142</v>
-      </c>
-      <c r="I25">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J25">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>156.1437225</v>
-      </c>
-      <c r="N25">
-        <v>312.287445</v>
-      </c>
-      <c r="O25">
-        <v>0.3130231971559245</v>
-      </c>
-      <c r="P25">
-        <v>0.2329928541434372</v>
-      </c>
-      <c r="Q25">
-        <v>34.931536735365</v>
-      </c>
-      <c r="R25">
-        <v>209.58922041219</v>
-      </c>
-      <c r="S25">
-        <v>0.002421380861782203</v>
-      </c>
-      <c r="T25">
-        <v>0.002130619918290095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.223714</v>
-      </c>
-      <c r="H26">
-        <v>0.671142</v>
-      </c>
-      <c r="I26">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J26">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>23.58813033333334</v>
-      </c>
-      <c r="N26">
-        <v>70.764391</v>
-      </c>
-      <c r="O26">
-        <v>0.04728740838025457</v>
-      </c>
-      <c r="P26">
-        <v>0.05279622250203546</v>
-      </c>
-      <c r="Q26">
-        <v>5.276994989391333</v>
-      </c>
-      <c r="R26">
-        <v>47.492954904522</v>
-      </c>
-      <c r="S26">
-        <v>0.0003657902247998321</v>
-      </c>
-      <c r="T26">
-        <v>0.0004827988552990606</v>
+        <v>0.0001119986509276091</v>
       </c>
     </row>
   </sheetData>
